--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.423641</v>
+        <v>6.480005333333334</v>
       </c>
       <c r="H2">
-        <v>28.270923</v>
+        <v>19.440016</v>
       </c>
       <c r="I2">
-        <v>0.3411090217977475</v>
+        <v>0.2625307555067131</v>
       </c>
       <c r="J2">
-        <v>0.3411090217977475</v>
+        <v>0.2625307555067131</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.96835266666667</v>
+        <v>34.53319033333333</v>
       </c>
       <c r="N2">
-        <v>44.905058</v>
+        <v>103.599571</v>
       </c>
       <c r="O2">
-        <v>0.1240053612000741</v>
+        <v>0.2461870921144496</v>
       </c>
       <c r="P2">
-        <v>0.1240053612000741</v>
+        <v>0.2461870921144496</v>
       </c>
       <c r="Q2">
-        <v>141.0563818920593</v>
+        <v>223.7752575370151</v>
       </c>
       <c r="R2">
-        <v>1269.507437028534</v>
+        <v>2013.977317833136</v>
       </c>
       <c r="S2">
-        <v>0.04229934745663363</v>
+        <v>0.06463168328880724</v>
       </c>
       <c r="T2">
-        <v>0.04229934745663363</v>
+        <v>0.06463168328880722</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.423641</v>
+        <v>6.480005333333334</v>
       </c>
       <c r="H3">
-        <v>28.270923</v>
+        <v>19.440016</v>
       </c>
       <c r="I3">
-        <v>0.3411090217977475</v>
+        <v>0.2625307555067131</v>
       </c>
       <c r="J3">
-        <v>0.3411090217977475</v>
+        <v>0.2625307555067131</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>242.324234</v>
       </c>
       <c r="O3">
-        <v>0.6691786071115035</v>
+        <v>0.575843103803214</v>
       </c>
       <c r="P3">
-        <v>0.6691786071115035</v>
+        <v>0.575843103803214</v>
       </c>
       <c r="Q3">
-        <v>761.1921956053313</v>
+        <v>523.4207762386383</v>
       </c>
       <c r="R3">
-        <v>6850.729760447982</v>
+        <v>4710.786986147744</v>
       </c>
       <c r="S3">
-        <v>0.2282628600797842</v>
+        <v>0.1511765250947884</v>
       </c>
       <c r="T3">
-        <v>0.2282628600797842</v>
+        <v>0.1511765250947884</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.423641</v>
+        <v>6.480005333333334</v>
       </c>
       <c r="H4">
-        <v>28.270923</v>
+        <v>19.440016</v>
       </c>
       <c r="I4">
-        <v>0.3411090217977475</v>
+        <v>0.2625307555067131</v>
       </c>
       <c r="J4">
-        <v>0.3411090217977475</v>
+        <v>0.2625307555067131</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>74.892616</v>
       </c>
       <c r="O4">
-        <v>0.2068160316884225</v>
+        <v>0.1779698040823365</v>
       </c>
       <c r="P4">
-        <v>0.2068160316884225</v>
+        <v>0.1779698040823364</v>
       </c>
       <c r="Q4">
-        <v>235.2537089116187</v>
+        <v>161.7681837024285</v>
       </c>
       <c r="R4">
-        <v>2117.283380204568</v>
+        <v>1455.913653321856</v>
       </c>
       <c r="S4">
-        <v>0.07054681426132975</v>
+        <v>0.04672254712311751</v>
       </c>
       <c r="T4">
-        <v>0.07054681426132976</v>
+        <v>0.0467225471231175</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>42.418663</v>
       </c>
       <c r="I5">
-        <v>0.5118116816312757</v>
+        <v>0.5728495102563012</v>
       </c>
       <c r="J5">
-        <v>0.5118116816312757</v>
+        <v>0.5728495102563012</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.96835266666667</v>
+        <v>34.53319033333333</v>
       </c>
       <c r="N5">
-        <v>44.905058</v>
+        <v>103.599571</v>
       </c>
       <c r="O5">
-        <v>0.1240053612000741</v>
+        <v>0.2461870921144496</v>
       </c>
       <c r="P5">
-        <v>0.1240053612000741</v>
+        <v>0.2461870921144496</v>
       </c>
       <c r="Q5">
-        <v>211.6458358108282</v>
+        <v>488.2839210215081</v>
       </c>
       <c r="R5">
-        <v>1904.812522297454</v>
+        <v>4394.555289193573</v>
       </c>
       <c r="S5">
-        <v>0.06346739244710366</v>
+        <v>0.1410281551491853</v>
       </c>
       <c r="T5">
-        <v>0.06346739244710366</v>
+        <v>0.1410281551491853</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>42.418663</v>
       </c>
       <c r="I6">
-        <v>0.5118116816312757</v>
+        <v>0.5728495102563012</v>
       </c>
       <c r="J6">
-        <v>0.5118116816312757</v>
+        <v>0.5728495102563012</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>242.324234</v>
       </c>
       <c r="O6">
-        <v>0.6691786071115035</v>
+        <v>0.575843103803214</v>
       </c>
       <c r="P6">
-        <v>0.6691786071115035</v>
+        <v>0.575843103803214</v>
       </c>
       <c r="Q6">
         <v>1142.11889097546</v>
@@ -818,10 +818,10 @@
         <v>10279.07001877914</v>
       </c>
       <c r="S6">
-        <v>0.3424934282174133</v>
+        <v>0.3298714399981396</v>
       </c>
       <c r="T6">
-        <v>0.3424934282174133</v>
+        <v>0.3298714399981396</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>42.418663</v>
       </c>
       <c r="I7">
-        <v>0.5118116816312757</v>
+        <v>0.5728495102563012</v>
       </c>
       <c r="J7">
-        <v>0.5118116816312757</v>
+        <v>0.5728495102563012</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>74.892616</v>
       </c>
       <c r="O7">
-        <v>0.2068160316884225</v>
+        <v>0.1779698040823365</v>
       </c>
       <c r="P7">
-        <v>0.2068160316884225</v>
+        <v>0.1779698040823364</v>
       </c>
       <c r="Q7">
         <v>352.9827376991565</v>
@@ -880,10 +880,10 @@
         <v>3176.844639292408</v>
       </c>
       <c r="S7">
-        <v>0.1058508609667587</v>
+        <v>0.1019499151089763</v>
       </c>
       <c r="T7">
-        <v>0.1058508609667587</v>
+        <v>0.1019499151089763</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>12.189849</v>
       </c>
       <c r="I8">
-        <v>0.1470792965709768</v>
+        <v>0.1646197342369858</v>
       </c>
       <c r="J8">
-        <v>0.1470792965709768</v>
+        <v>0.1646197342369858</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.96835266666667</v>
+        <v>34.53319033333333</v>
       </c>
       <c r="N8">
-        <v>44.905058</v>
+        <v>103.599571</v>
       </c>
       <c r="O8">
-        <v>0.1240053612000741</v>
+        <v>0.2461870921144496</v>
       </c>
       <c r="P8">
-        <v>0.1240053612000741</v>
+        <v>0.2461870921144496</v>
       </c>
       <c r="Q8">
-        <v>60.82065292847132</v>
+        <v>140.3181252171976</v>
       </c>
       <c r="R8">
-        <v>547.3858763562419</v>
+        <v>1262.863126954779</v>
       </c>
       <c r="S8">
-        <v>0.0182386212963368</v>
+        <v>0.04052725367645703</v>
       </c>
       <c r="T8">
-        <v>0.0182386212963368</v>
+        <v>0.04052725367645702</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>12.189849</v>
       </c>
       <c r="I9">
-        <v>0.1470792965709768</v>
+        <v>0.1646197342369858</v>
       </c>
       <c r="J9">
-        <v>0.1470792965709768</v>
+        <v>0.1646197342369858</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>242.324234</v>
       </c>
       <c r="O9">
-        <v>0.6691786071115035</v>
+        <v>0.575843103803214</v>
       </c>
       <c r="P9">
-        <v>0.6691786071115035</v>
+        <v>0.575843103803214</v>
       </c>
       <c r="Q9">
         <v>328.2106468334073</v>
@@ -1004,10 +1004,10 @@
         <v>2953.895821500666</v>
       </c>
       <c r="S9">
-        <v>0.09842231881430601</v>
+        <v>0.09479513871028609</v>
       </c>
       <c r="T9">
-        <v>0.09842231881430601</v>
+        <v>0.09479513871028609</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>12.189849</v>
       </c>
       <c r="I10">
-        <v>0.1470792965709768</v>
+        <v>0.1646197342369858</v>
       </c>
       <c r="J10">
-        <v>0.1470792965709768</v>
+        <v>0.1646197342369858</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>74.892616</v>
       </c>
       <c r="O10">
-        <v>0.2068160316884225</v>
+        <v>0.1779698040823365</v>
       </c>
       <c r="P10">
-        <v>0.2068160316884225</v>
+        <v>0.1779698040823364</v>
       </c>
       <c r="Q10">
         <v>101.4366311394427</v>
@@ -1066,10 +1066,10 @@
         <v>912.929680254984</v>
       </c>
       <c r="S10">
-        <v>0.03041835646033404</v>
+        <v>0.02929734185024265</v>
       </c>
       <c r="T10">
-        <v>0.03041835646033404</v>
+        <v>0.02929734185024264</v>
       </c>
     </row>
   </sheetData>
